--- a/NEW HR/MANLANGIT, LEONILA.xlsx
+++ b/NEW HR/MANLANGIT, LEONILA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="102">
   <si>
     <t>PERIOD</t>
   </si>
@@ -334,6 +334,15 @@
   </si>
   <si>
     <t>6/28-30/2022</t>
+  </si>
+  <si>
+    <t>12/17,20/2022</t>
+  </si>
+  <si>
+    <t>VL(11-0-0)</t>
+  </si>
+  <si>
+    <t>2/1-3,6-10,13-15/2023</t>
   </si>
 </sst>
 </file>
@@ -712,17 +721,14 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -736,23 +742,26 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1443,7 +1452,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1495,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1559,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1619,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1685,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1748,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1846,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1905,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1970,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2013,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2088,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2274,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2340,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2398,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2464,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2520,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2595,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2638,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2704,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2751,7 +2760,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2858,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +2921,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,7 +3400,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,34 +3422,34 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -3452,21 +3461,21 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3492,18 +3501,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3550,7 +3559,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>26.5</v>
+        <v>16.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3560,7 +3569,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>34.5</v>
+        <v>33.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4061,7 +4070,7 @@
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="61">
+      <c r="K32" s="49">
         <v>43627</v>
       </c>
     </row>
@@ -4105,7 +4114,7 @@
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="61">
+      <c r="K34" s="49">
         <v>43637</v>
       </c>
     </row>
@@ -4193,7 +4202,7 @@
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="61">
+      <c r="K38" s="49">
         <v>43731</v>
       </c>
     </row>
@@ -4287,7 +4296,7 @@
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="61">
+      <c r="K42" s="49">
         <v>43830</v>
       </c>
     </row>
@@ -4329,7 +4338,7 @@
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="61">
+      <c r="K44" s="49">
         <v>43847</v>
       </c>
     </row>
@@ -4351,7 +4360,7 @@
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="61">
+      <c r="K45" s="49">
         <v>43845</v>
       </c>
     </row>
@@ -4373,7 +4382,7 @@
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="61">
+      <c r="K46" s="49">
         <v>43859</v>
       </c>
     </row>
@@ -4703,7 +4712,7 @@
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="61">
+      <c r="K61" s="49">
         <v>44213</v>
       </c>
     </row>
@@ -5031,7 +5040,7 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="61">
+      <c r="K76" s="49">
         <v>44578</v>
       </c>
     </row>
@@ -5251,7 +5260,9 @@
       <c r="A87" s="40">
         <v>44896</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
@@ -5262,10 +5273,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H87" s="39"/>
+      <c r="H87" s="39">
+        <v>2</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
@@ -5309,11 +5324,15 @@
       <c r="A90" s="40">
         <v>44958</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C90" s="13">
         <v>1.25</v>
       </c>
-      <c r="D90" s="39"/>
+      <c r="D90" s="39">
+        <v>11</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13">
@@ -5323,18 +5342,24 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>44986</v>
+      </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
@@ -5342,7 +5367,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45017</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -6239,17 +6266,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6309,41 +6336,41 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>MANLANGIT, LEONILA</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -6355,25 +6382,25 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6399,18 +6426,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6512,7 +6539,7 @@
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="61">
+      <c r="K11" s="49">
         <v>43117</v>
       </c>
     </row>
@@ -6558,7 +6585,7 @@
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="61">
+      <c r="K13" s="49">
         <v>43172</v>
       </c>
     </row>
@@ -6580,7 +6607,7 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="61">
+      <c r="K14" s="49">
         <v>43163</v>
       </c>
     </row>
@@ -6720,7 +6747,7 @@
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="62">
+      <c r="K20" s="50">
         <v>43283</v>
       </c>
     </row>
@@ -6766,7 +6793,7 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="61">
+      <c r="K22" s="49">
         <v>43325</v>
       </c>
     </row>
@@ -8654,17 +8681,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -8743,12 +8770,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/NEW HR/MANLANGIT, LEONILA.xlsx
+++ b/NEW HR/MANLANGIT, LEONILA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="112">
   <si>
     <t>PERIOD</t>
   </si>
@@ -343,6 +343,36 @@
   </si>
   <si>
     <t>2/1-3,6-10,13-15/2023</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>11/27-12/3/2022</t>
+  </si>
+  <si>
+    <t>12/23,26-29/2022</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>1/16-18/2023</t>
+  </si>
+  <si>
+    <t>SL(9-0-0)</t>
+  </si>
+  <si>
+    <t>1/19,20,23-31/2023</t>
+  </si>
+  <si>
+    <t>TICC</t>
+  </si>
+  <si>
+    <t>3/20-22/2023</t>
+  </si>
+  <si>
+    <t>PARENTAL 3/23-25/2023</t>
   </si>
 </sst>
 </file>
@@ -2987,7 +3017,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K147" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K151" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3395,12 +3425,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K147"/>
+  <dimension ref="A2:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A79" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <pane ySplit="4425" topLeftCell="A85" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,7 +3498,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="56" t="s">
+        <v>109</v>
+      </c>
       <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3559,7 +3591,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>16.75</v>
+        <v>5.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3569,7 +3601,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>33.75</v>
+        <v>21.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5240,11 +5272,15 @@
       <c r="A86" s="40">
         <v>44866</v>
       </c>
-      <c r="B86" s="20"/>
+      <c r="B86" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C86" s="13">
         <v>1.25</v>
       </c>
-      <c r="D86" s="39"/>
+      <c r="D86" s="39">
+        <v>6</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13">
@@ -5254,7 +5290,9 @@
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="20" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
@@ -5283,10 +5321,10 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="20"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
@@ -5298,59 +5336,57 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="49">
+        <v>44907</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D89" s="39"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="39">
+        <v>5</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="49" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D90" s="39">
-        <v>11</v>
-      </c>
+      <c r="A90" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="20"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B91" s="20"/>
+        <v>44927</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
@@ -5364,13 +5400,15 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B92" s="20"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
@@ -5379,46 +5417,72 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H92" s="39"/>
+      <c r="H92" s="39">
+        <v>9</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="39"/>
+      <c r="A93" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D93" s="39">
+        <v>11</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="A94" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="39"/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H94" s="39">
+        <v>3</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="20" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
-      <c r="B95" s="20"/>
+      <c r="B95" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
@@ -5430,10 +5494,14 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="20" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45017</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -6249,20 +6317,84 @@
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="41"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="43"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H147" s="43"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
       <c r="I147" s="9"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="15"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="40"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="40"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="40"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="41"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="43"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6392,7 +6524,7 @@
       </c>
       <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
+        <v>TICC</v>
       </c>
       <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
